--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2181613.512561579</v>
+        <v>2285793.147012651</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>80.86018225786162</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>152.0946415035398</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498669</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247588</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>126.6623413033677</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>131.5522128412691</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -871,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>320.4865678544377</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>136.9612421264998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>67.47432596066423</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>159.9967189074651</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>357.9103591257397</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>257.6818544853567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>114.0495374903441</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>14.74106137621237</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1430,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1531,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.255571502167365</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1777,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826188297</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1821,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>220.4289331391115</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634785</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>60.42721558712929</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>77.39507264402552</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2141,10 +2143,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>121.0116223990574</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="24">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,16 +2484,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>125.8152577453153</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>244.7511938164735</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2615,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174122</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2713,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>69.18922512558622</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>66.12869588327256</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>115.4863975071902</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>114.6638016462583</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2998,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3193,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>41.02686156550228</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101247</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>71.05846343487833</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3670,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.2857567969022</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>51.36569740310371</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>21.44532649588058</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>177.1513727793239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1672.191441142815</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C2" t="n">
-        <v>1303.228924202404</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>944.9632255956531</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>559.1749729974088</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>148.1890682078012</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649821</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W2" t="n">
-        <v>2435.796531379707</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X2" t="n">
-        <v>2062.330773118627</v>
+        <v>2377.852659508903</v>
       </c>
       <c r="Y2" t="n">
-        <v>1672.191441142815</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.543854481107</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.09082519998</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387288</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332733</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601583</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927764</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064387</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.82830229719</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199863</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501175</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>342.3669689068672</v>
+        <v>518.445961844415</v>
       </c>
       <c r="C4" t="n">
-        <v>342.3669689068672</v>
+        <v>349.5097789165081</v>
       </c>
       <c r="D4" t="n">
-        <v>214.4252100145765</v>
+        <v>199.3931395041724</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>631.7841389438278</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>631.7841389438278</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>342.3669689068672</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>342.3669689068672</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>342.3669689068672</v>
+        <v>700.0944266746548</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1636.624422581789</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267228</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923657</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>2535.034709923657</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X5" t="n">
-        <v>2161.568951662578</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y5" t="n">
-        <v>2023.224262645911</v>
+        <v>2283.102991989294</v>
       </c>
     </row>
     <row r="6">
@@ -4638,25 +4640,25 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>449.8213709509843</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="C7" t="n">
-        <v>280.8851880230774</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143256</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181845</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="W7" t="n">
-        <v>631.469835781224</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="X7" t="n">
-        <v>631.469835781224</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="Y7" t="n">
-        <v>631.469835781224</v>
+        <v>477.7578170212613</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.62132134232</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1583.077587705311</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1224.81188909856</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>839.0236365003159</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>428.0377317107083</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4826,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X8" t="n">
-        <v>2325.505862906803</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y8" t="n">
-        <v>2065.221161406442</v>
+        <v>1952.040104645722</v>
       </c>
     </row>
     <row r="9">
@@ -4878,10 +4880,10 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031477</v>
@@ -4936,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.713669452733</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4987,25 +4989,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>905.9970448321118</v>
       </c>
       <c r="T10" t="n">
-        <v>699.1203903877109</v>
+        <v>684.2304294016378</v>
       </c>
       <c r="U10" t="n">
-        <v>699.1203903877109</v>
+        <v>684.2304294016378</v>
       </c>
       <c r="V10" t="n">
-        <v>699.1203903877109</v>
+        <v>684.2304294016378</v>
       </c>
       <c r="W10" t="n">
-        <v>409.7032203507503</v>
+        <v>684.2304294016378</v>
       </c>
       <c r="X10" t="n">
-        <v>181.713669452733</v>
+        <v>456.2408785036204</v>
       </c>
       <c r="Y10" t="n">
-        <v>181.713669452733</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="11">
@@ -5030,58 +5032,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397182</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6605733532801</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7243904253733</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1976.192826467915</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1721.508338262028</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1432.091168225067</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.10161732705</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3090381835199</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5291,37 +5293,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.6905094135296</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856228</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>241.7297566303649</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5455,31 +5457,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580253</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U16" t="n">
-        <v>1754.805592491204</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.121104285317</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.121104285317</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.131553387299</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.338974243769</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5504,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5528,37 +5530,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="18">
@@ -5586,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>214.9229991561138</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L18" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703109</v>
+        <v>724.7519863413022</v>
       </c>
       <c r="C19" t="n">
-        <v>526.5658826424041</v>
+        <v>555.8158034133953</v>
       </c>
       <c r="D19" t="n">
-        <v>526.5658826424041</v>
+        <v>555.8158034133953</v>
       </c>
       <c r="E19" t="n">
-        <v>378.6527890600109</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="F19" t="n">
-        <v>378.6527890600109</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5704,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>906.4004511715419</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5749,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5789,7 +5791,7 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913445</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2381.235169913445</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>2876.560776129204</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>3241.424143276704</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>3869.022106831311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>4420.931837070598</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>4420.931837070598</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>4654.19349744548</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797186</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,25 +5968,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -6008,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>3445.398957336244</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3200.825397924056</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C25" t="n">
-        <v>3031.889214996149</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D25" t="n">
-        <v>2881.772575583813</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E25" t="n">
-        <v>2733.85948200142</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F25" t="n">
-        <v>2586.96953450351</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>2419.77343521839</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.932614305899</v>
+        <v>2319.876964645598</v>
       </c>
       <c r="T25" t="n">
-        <v>4440.932614305899</v>
+        <v>2100.27549966854</v>
       </c>
       <c r="U25" t="n">
-        <v>4193.709186208451</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V25" t="n">
-        <v>3939.024698002564</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W25" t="n">
-        <v>3649.607527965603</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X25" t="n">
-        <v>3421.617977067586</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y25" t="n">
-        <v>3200.825397924056</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="26">
@@ -6218,28 +6220,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,22 +6253,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>948.5505208511905</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232836</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1868.398285759938</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>1578.981115722978</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X28" t="n">
-        <v>1350.99156482496</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1130.19898568143</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6445,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,25 +6545,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>409.1360811687896</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>904.4616873845483</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.8401750111</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>878.3568999154069</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C31" t="n">
-        <v>878.3568999154069</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D31" t="n">
-        <v>728.2402605030711</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E31" t="n">
-        <v>580.327166920678</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>433.4372194227676</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6646,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6689,19 +6691,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,37 +6715,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913445</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2381.235169913445</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>2876.560776129204</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>3473.939263755756</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N33" t="n">
-        <v>4101.537227310362</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O33" t="n">
-        <v>4653.44695754965</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P33" t="n">
-        <v>4653.44695754965</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2338.476105524075</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2338.476105524075</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6925,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7020,22 +7022,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>1963.765362972544</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2387.388512467612</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.91737983266</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487564</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2125.286319795768</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,40 +7162,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7403,37 +7405,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913447</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>2715.159942084667</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>3210.485548300426</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>3807.864035926978</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>3869.022106831312</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445482</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>929.7309773356194</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V43" t="n">
-        <v>1849.578742244367</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W43" t="n">
-        <v>1560.161572207406</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>1332.172021309389</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y43" t="n">
-        <v>1111.379442165859</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7664,34 +7666,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590557</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>2383.002557118212</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>2716.927329289433</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>3212.252935505192</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>3809.631423131743</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>3905.661761784424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>4457.571492023711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P45" t="n">
-        <v>4457.571492023711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7834,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2018.121764902392</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1729.046538246589</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1474.362050040702</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1184.944880003742</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>956.9553291057244</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23419,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>284.9289028870768</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.45968844823872</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>65.75554125013261</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>105.0969227051395</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>208.7894017452186</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>58.82035778287988</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>55.21102825632927</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>41.4332805727706</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>182.9484181982418</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>159.5809595057646</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>64.34558267474709</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>50.86033664601051</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>20.61870490125435</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>139.9994244361423</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>215.1260109543658</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0.135291226029068</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>230.6923168279474</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>40.25407754796441</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.1988153137</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="F2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675047</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="I2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="J2" t="n">
         <v>605359.9497675044</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.949767504</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="L2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="M2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="N2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="M2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="P2" t="n">
         <v>605359.9497675041</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405263</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405256</v>
@@ -26430,31 +26432,31 @@
         <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189204</v>
+        <v>16046.58397189207</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189204</v>
+        <v>16046.58397189203</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189202</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="P4" t="n">
         <v>16046.58397189197</v>
@@ -26525,40 +26527,40 @@
         <v>414250.6427327665</v>
       </c>
       <c r="D6" t="n">
-        <v>414250.6427327667</v>
+        <v>414250.6427327665</v>
       </c>
       <c r="E6" t="n">
-        <v>162778.3741643503</v>
+        <v>162778.3741643499</v>
       </c>
       <c r="F6" t="n">
-        <v>488190.8359717053</v>
+        <v>488190.8359717056</v>
       </c>
       <c r="G6" t="n">
-        <v>488190.8359717049</v>
+        <v>488190.8359717054</v>
       </c>
       <c r="H6" t="n">
-        <v>488190.8359717056</v>
+        <v>488190.8359717054</v>
       </c>
       <c r="I6" t="n">
-        <v>488190.8359717053</v>
+        <v>488190.8359717051</v>
       </c>
       <c r="J6" t="n">
-        <v>270659.6335744275</v>
+        <v>270659.6335744278</v>
       </c>
       <c r="K6" t="n">
-        <v>488190.8359717053</v>
+        <v>488190.8359717052</v>
       </c>
       <c r="L6" t="n">
-        <v>488190.8359717051</v>
+        <v>488190.8359717052</v>
       </c>
       <c r="M6" t="n">
-        <v>403135.8080361937</v>
+        <v>403135.8080361934</v>
       </c>
       <c r="N6" t="n">
-        <v>488190.835971705</v>
+        <v>488190.8359717052</v>
       </c>
       <c r="O6" t="n">
-        <v>488190.8359717055</v>
+        <v>488190.8359717052</v>
       </c>
       <c r="P6" t="n">
         <v>488190.8359717051</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>330.0615433955918</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>217.6364591749292</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>21.95313171484463</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>14.88174980530007</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27591,19 +27593,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>62.24727380904289</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>249.2766965295538</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>81.14114705754812</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27834,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>65.71293648157203</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>53.01136652771379</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>128.5560841706969</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>53.19728360828378</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28059,7 +28061,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>175.0279639552295</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28342,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28527,7 +28529,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-5.25812187936948e-12</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28561,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28861,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -30508,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-5.226490029168309e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31601,10 +31603,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31835,31 +31837,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M12" t="n">
-        <v>489.3502824033309</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32074,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>618.3341264639751</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717718</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32314,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>260.1710714068256</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328829</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32555,10 +32557,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>510.6828896265637</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,7 +32569,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32792,13 +32794,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>518.439455159358</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366852</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32809,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33049,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33202,7 +33204,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33263,10 +33265,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33281,10 +33283,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,7 +33505,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33515,13 +33517,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>177.745607266772</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33673,7 +33675,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33740,7 +33742,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>307.3280120589134</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,13 +33891,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33974,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>242.2322097768141</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>697.0074482175629</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33995,7 +33997,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>193.11754127963</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34457,13 +34459,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>228.3420541567477</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35483,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M12" t="n">
-        <v>347.2162484813126</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>476.2000925419567</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>191.3582339884385</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998908</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>122.3296324324666</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>191.3582339884385</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,10 +36205,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>368.5488557045454</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,7 +36217,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36440,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>376.3054212373396</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533519</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36457,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,19 +36676,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36697,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36850,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36911,10 +36913,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36929,10 +36931,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37163,13 +37165,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>37.76383318075048</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37321,7 +37323,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37388,7 +37390,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>167.3462379728918</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,13 +37539,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37622,19 +37624,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>565.6657361342296</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37643,7 +37645,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629669</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38017,7 +38019,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38105,13 +38107,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>97.0003420734144</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2285793.147012651</v>
+        <v>2281780.536998657</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283174</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>331.4097589280065</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>152.0946415035398</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498669</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -755,7 +755,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I3" t="n">
         <v>18.81721868247742</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,13 +825,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>131.5522128412691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>320.4865678544377</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>94.8127598026153</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -952,16 +952,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>58.28185552386346</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>159.9967189074651</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>357.9103591257397</v>
+        <v>249.5254159314113</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>59.50286836346307</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>14.74106137621237</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206859</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>137.9792024346624</v>
+        <v>74.56474874234516</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881303</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>19.91555826188297</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>71.22475183605114</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634785</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428253</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>77.39507264402552</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>83.06560892428253</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428253</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
-        <v>125.8152577453153</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703276</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>66.12869588327256</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>115.4863975071902</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>87.26519496153836</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>125.8152577453148</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161918028</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>5.890337106878487</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576188</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>186.5877792298983</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>51.36569740310371</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428257</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428257</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.11348746897</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4342,13 +4342,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792694</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.48361052258</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X2" t="n">
-        <v>2377.852659508903</v>
+        <v>2382.341170533244</v>
       </c>
       <c r="Y2" t="n">
-        <v>1987.713327533092</v>
+        <v>2382.341170533244</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.445961844415</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>349.5097789165081</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>199.3931395041724</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
         <v>66.5121164321834</v>
@@ -4533,7 +4533,7 @@
         <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>700.0944266746548</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4600,19 +4600,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250374</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2283.102991989294</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y5" t="n">
-        <v>2283.102991989294</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="6">
@@ -4640,19 +4640,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>477.7578170212613</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C7" t="n">
-        <v>477.7578170212613</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7578170212613</v>
+        <v>420.1857186477025</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>272.2726250653094</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>125.382677567399</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4749,28 +4749,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>477.7578170212613</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>477.7578170212613</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1952.040104645722</v>
+        <v>1480.516858765518</v>
       </c>
       <c r="C8" t="n">
-        <v>1583.077587705311</v>
+        <v>1111.554341825106</v>
       </c>
       <c r="D8" t="n">
-        <v>1224.81188909856</v>
+        <v>753.2886432183557</v>
       </c>
       <c r="E8" t="n">
-        <v>839.0236365003159</v>
+        <v>367.5003906201114</v>
       </c>
       <c r="F8" t="n">
-        <v>428.0377317107083</v>
+        <v>360.554889870908</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176916</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906802</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645722</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y8" t="n">
-        <v>1952.040104645722</v>
+        <v>1867.11669882964</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
@@ -4886,10 +4886,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.4482993600903</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C10" t="n">
-        <v>66.5121164321834</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>66.5121164321834</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4989,25 +4989,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>905.9970448321118</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>684.2304294016378</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>684.2304294016378</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>684.2304294016378</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>684.2304294016378</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>456.2408785036204</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.4482993600903</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611467</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,13 +5029,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5044,49 +5044,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143766</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853372</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580271</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832674</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487578</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510519</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854717</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1613.067925832146</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1323.650755795185</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1095.661204897168</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192639</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>577.388077746847</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143766</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.7825789706076</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427007</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>241.7297566303649</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797183</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797183</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797183</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580253</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>1735.314832085242</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="V16" t="n">
-        <v>1480.630343879355</v>
+        <v>1722.776592304623</v>
       </c>
       <c r="W16" t="n">
-        <v>1191.213173842395</v>
+        <v>1433.359422267662</v>
       </c>
       <c r="X16" t="n">
-        <v>963.2236229443774</v>
+        <v>1205.369871369645</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.4310438008473</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,64 +5503,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K18" t="n">
-        <v>577.388077746847</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589157</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>724.7519863413022</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>555.8158034133953</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133953</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310022</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797183</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1127.193030315072</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>906.4004511715419</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,55 +5740,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,25 +5977,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6004,34 +6004,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L24" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M24" t="n">
-        <v>3210.485548300425</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N24" t="n">
-        <v>3445.398957336244</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O24" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>636.6680198981028</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C25" t="n">
-        <v>467.7318369701959</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D25" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2319.876964645598</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2100.27549966854</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1811.200273012738</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1556.515784806851</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1267.09861476989</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1039.109063871873</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y25" t="n">
-        <v>818.3164847283425</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="26">
@@ -6220,40 +6220,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1332.172021309389</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="29">
@@ -6460,31 +6460,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>806.8386896933887</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C31" t="n">
-        <v>637.9025067654818</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>264.0500279773697</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>264.0500279773697</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683283</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048574</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925216</v>
+        <v>261.8464821474271</v>
       </c>
       <c r="E34" t="n">
-        <v>317.6151975578602</v>
+        <v>261.8464821474271</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>261.8464821474271</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>94.65038286230703</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L36" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7162,46 +7162,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.012762333092</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="41">
@@ -7399,43 +7399,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913447</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>2715.159942084667</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L42" t="n">
-        <v>3210.485548300426</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3807.864035926978</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3869.022106831312</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098242</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819173</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695815</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E43" t="n">
-        <v>516.3896878871884</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F43" t="n">
-        <v>369.499740389278</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7578,7 +7578,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
@@ -7587,34 +7587,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783594</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="44">
@@ -7639,22 +7639,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
   </sheetData>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>114.1584408891656</v>
+        <v>177.5728945814828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.45968844823872</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>147.3599015160436</v>
       </c>
     </row>
     <row r="17">
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194133</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.7894017452186</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194133</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194133</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>55.21102825632927</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>159.5809595057646</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64.34558267474709</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>78.25894333073049</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>20.61870490125435</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>139.4693302300321</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>211.5151132204098</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>65.54986409392973</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.1988153143</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822395.1988153137</v>
+        <v>822395.1988153141</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>822395.198815314</v>
+        <v>822395.1988153141</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>822395.198815314</v>
+        <v>822395.1988153141</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>822395.198815314</v>
+        <v>822395.1988153141</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>822395.198815314</v>
+        <v>822395.1988153141</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>822395.198815314</v>
+        <v>822395.1988153141</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>822395.198815314</v>
+        <v>822395.1988153141</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982119</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982123</v>
@@ -26322,25 +26322,25 @@
         <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675048</v>
       </c>
       <c r="F2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="I2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="L2" t="n">
         <v>605359.9497675044</v>
@@ -26349,13 +26349,13 @@
         <v>605359.9497675044</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="O2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.461807356</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551207</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,28 +26420,28 @@
         <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.5839718919</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189207</v>
+        <v>16046.58397189192</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189192</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
@@ -26453,10 +26453,10 @@
         <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
+        <v>16046.58397189185</v>
+      </c>
+      <c r="O4" t="n">
         <v>16046.58397189197</v>
-      </c>
-      <c r="O4" t="n">
-        <v>16046.58397189193</v>
       </c>
       <c r="P4" t="n">
         <v>16046.58397189197</v>
@@ -26478,19 +26478,19 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26505,7 +26505,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-914494.1029948259</v>
+        <v>-914494.1029948265</v>
       </c>
       <c r="C6" t="n">
         <v>414250.6427327665</v>
@@ -26530,40 +26530,40 @@
         <v>414250.6427327665</v>
       </c>
       <c r="E6" t="n">
-        <v>162778.3741643499</v>
+        <v>162430.9949099928</v>
       </c>
       <c r="F6" t="n">
-        <v>488190.8359717056</v>
+        <v>487843.4567173484</v>
       </c>
       <c r="G6" t="n">
-        <v>488190.8359717054</v>
+        <v>487843.4567173484</v>
       </c>
       <c r="H6" t="n">
-        <v>488190.8359717054</v>
+        <v>487843.4567173482</v>
       </c>
       <c r="I6" t="n">
-        <v>488190.8359717051</v>
+        <v>487843.4567173482</v>
       </c>
       <c r="J6" t="n">
-        <v>270659.6335744278</v>
+        <v>270312.2543200709</v>
       </c>
       <c r="K6" t="n">
-        <v>488190.8359717052</v>
+        <v>487843.456717348</v>
       </c>
       <c r="L6" t="n">
-        <v>488190.8359717052</v>
+        <v>487843.4567173483</v>
       </c>
       <c r="M6" t="n">
-        <v>403135.8080361934</v>
+        <v>402788.4287818362</v>
       </c>
       <c r="N6" t="n">
-        <v>488190.8359717052</v>
+        <v>487843.4567173483</v>
       </c>
       <c r="O6" t="n">
-        <v>488190.8359717052</v>
+        <v>487843.4567173484</v>
       </c>
       <c r="P6" t="n">
-        <v>488190.8359717051</v>
+        <v>487843.4567173483</v>
       </c>
     </row>
   </sheetData>
@@ -26795,25 +26795,25 @@
         <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26825,10 +26825,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="O4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>51.32408273547412</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>217.6364591749292</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,13 +27545,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>14.88174980530007</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62.24727380904289</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>270.4601319683923</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>107.7439527351648</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>65.71293648157203</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>53.01136652771379</v>
+        <v>161.3963097220421</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>107.7439527351648</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28061,10 +28061,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>175.0279639552295</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-2.210640988183304e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28289,7 +28289,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>9.615064300305676e-12</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-1.733724275254644e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28529,7 +28529,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-5.25812187936948e-12</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28863,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-9.379164112033322e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-2.700062395888381e-12</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-5.226490029168309e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31606,7 +31606,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565744</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N15" t="n">
-        <v>322.6999460717718</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565744</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>333.9544784328829</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>368.6279838366852</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>196.3041720119</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,40 +34122,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34164,7 +34164,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,37 +34207,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>193.11754127963</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34304,7 +34304,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P45" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.95065951213</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066347</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
-        <v>191.3582339884385</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>257.95065951213</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998908</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>191.3582339884385</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>440.9755796648395</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>237.2862717533519</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>440.9755796648395</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>57.74979223202579</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>73.18080466315317</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>103.6778299969399</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>61.77582919629669</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37949,7 +37949,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P45" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2281780.536998657</v>
+        <v>2283541.067301441</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283174</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>331.4097589280065</v>
+        <v>4.792004777350766</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -718,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851092</v>
       </c>
       <c r="I3" t="n">
         <v>18.81721868247742</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.08802744677259</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>58.28185552386362</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>94.8127598026153</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>336.0483602400589</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -955,13 +955,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>58.28185552386346</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>205.9368310100324</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,10 +1147,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>249.5254159314113</v>
+        <v>337.6514932075709</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.50286836346307</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>149.1816830357536</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206859</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>120.8326485140796</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>74.56474874234516</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881303</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>129.1078928223817</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.22475183605114</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428253</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428253</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>5.421623586788709</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428253</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>82.52140782073276</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>87.26519496153836</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8253826161918028</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3438,10 +3438,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T37" t="n">
-        <v>5.890337106878487</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576188</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>186.5877792298983</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428257</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,13 +3954,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428257</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,16 +4194,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>117.4665281367395</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
         <v>934.5673701373257</v>
@@ -4327,16 +4327,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
@@ -4345,37 +4345,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794324</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2382.341170533244</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2382.341170533244</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4403,13 +4403,13 @@
         <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181849</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2071.975386180639</v>
+        <v>1642.972675199009</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1274.010158258597</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180639</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="Y5" t="n">
-        <v>2071.975386180639</v>
+        <v>2029.572515263131</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4652,34 +4652,34 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>739.2385409879452</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="C7" t="n">
-        <v>570.3023580600383</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D7" t="n">
-        <v>420.1857186477025</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E7" t="n">
-        <v>272.2726250653094</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>125.382677567399</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181849</v>
+        <v>712.8700047979503</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1480.516858765518</v>
+        <v>1867.116698829639</v>
       </c>
       <c r="C8" t="n">
-        <v>1111.554341825106</v>
+        <v>1498.154181889227</v>
       </c>
       <c r="D8" t="n">
-        <v>753.2886432183557</v>
+        <v>1139.888483282477</v>
       </c>
       <c r="E8" t="n">
-        <v>367.5003906201114</v>
+        <v>754.1002306842327</v>
       </c>
       <c r="F8" t="n">
-        <v>360.554889870908</v>
+        <v>747.1547299350292</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4828,16 +4828,16 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V8" t="n">
         <v>2630.721789066531</v>
@@ -4849,7 +4849,7 @@
         <v>2257.256030805451</v>
       </c>
       <c r="Y8" t="n">
-        <v>1867.11669882964</v>
+        <v>1867.116698829639</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
@@ -4889,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.2385409879452</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4986,28 +4986,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181849</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551878</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611467</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466577</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852892</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591812</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866616</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468476</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962607</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589159</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143766</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>991.7436897307817</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>822.8075068028749</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>672.6908673905391</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>524.777773808146</v>
       </c>
       <c r="F13" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853372</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580271</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832674</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487578</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510519</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854717</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1613.067925832146</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1323.650755795185</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1095.661204897168</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="Y13" t="n">
-        <v>874.8686257536381</v>
+        <v>1173.392154561021</v>
       </c>
     </row>
     <row r="14">
@@ -5266,64 +5266,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192639</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468476</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962607</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589159</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143766</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400676</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>513.8536007400676</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>513.8536007400676</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>365.9405071576745</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>365.9405071576745</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.46108051051</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304623</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267662</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369645</v>
+        <v>916.2946447138374</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703073</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,52 +5503,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075814</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516146</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793926</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348533</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,52 +5740,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516146</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793926</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348533</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400721</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121652</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121652</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121652</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121652</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270452</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703119</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516146</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793926</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348533</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400721</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121652</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121652</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X25" t="n">
-        <v>916.294644713842</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703119</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="26">
@@ -6214,25 +6214,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6244,16 +6244,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703119</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876697</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597628</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597628</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E31" t="n">
-        <v>264.0500279773697</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>264.0500279773697</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258107</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602305</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396418</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359457</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614396</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179095</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876697</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597628</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>261.8464821474271</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>261.8464821474271</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>261.8464821474271</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>94.65038286230703</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614396</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179095</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192603</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T37" t="n">
-        <v>2191.112710026075</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>2191.112710026075</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1936.428221820188</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783227</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7165,43 +7165,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273912</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516146</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793926</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348533</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.0655846733346</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>411.1294017454277</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>261.012762333092</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E40" t="n">
-        <v>261.012762333092</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F40" t="n">
-        <v>261.012762333092</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797193</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1499.913349582082</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1210.496179545122</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>982.5066286471044</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>761.7140495035743</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400721</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121652</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121652</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121652</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270452</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>916.294644713842</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703119</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400721</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121652</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121652</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121652</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270452</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X46" t="n">
-        <v>916.294644713842</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703119</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>24.58839950885168</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>177.5728945814828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>36.41624546988717</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>147.3599015160436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194133</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194133</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>211.9838267404996</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194133</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>55.21102825632966</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>78.25894333073049</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>139.4693302300321</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T37" t="n">
-        <v>211.5151132204098</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>65.54986409392973</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>40.64330621514819</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>822395.1988153143</v>
+        <v>822395.1988153141</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982119</v>
+        <v>615781.327398212</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675048</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.949767504</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.949767504</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.949767504</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="K2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="M2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="L2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675044</v>
-      </c>
       <c r="N2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.949767504</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.461807356</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551207</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405252</v>
+      </c>
+      <c r="C4" t="n">
+        <v>93596.7441040525</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405257</v>
-      </c>
-      <c r="C4" t="n">
-        <v>93596.74410405254</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.5839718919</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
@@ -26453,7 +26453,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189185</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
@@ -26478,19 +26478,19 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26505,7 +26505,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-914494.1029948265</v>
+        <v>-914494.1029948264</v>
       </c>
       <c r="C6" t="n">
         <v>414250.6427327665</v>
       </c>
       <c r="D6" t="n">
-        <v>414250.6427327665</v>
+        <v>414250.6427327663</v>
       </c>
       <c r="E6" t="n">
-        <v>162430.9949099928</v>
+        <v>162743.6362389142</v>
       </c>
       <c r="F6" t="n">
-        <v>487843.4567173484</v>
+        <v>488156.0980462697</v>
       </c>
       <c r="G6" t="n">
-        <v>487843.4567173484</v>
+        <v>488156.0980462692</v>
       </c>
       <c r="H6" t="n">
-        <v>487843.4567173482</v>
+        <v>488156.0980462692</v>
       </c>
       <c r="I6" t="n">
-        <v>487843.4567173482</v>
+        <v>488156.0980462692</v>
       </c>
       <c r="J6" t="n">
-        <v>270312.2543200709</v>
+        <v>270624.8956489917</v>
       </c>
       <c r="K6" t="n">
-        <v>487843.456717348</v>
+        <v>488156.0980462692</v>
       </c>
       <c r="L6" t="n">
-        <v>487843.4567173483</v>
+        <v>488156.0980462692</v>
       </c>
       <c r="M6" t="n">
-        <v>402788.4287818362</v>
+        <v>403101.0701107574</v>
       </c>
       <c r="N6" t="n">
-        <v>487843.4567173483</v>
+        <v>488156.0980462697</v>
       </c>
       <c r="O6" t="n">
-        <v>487843.4567173484</v>
+        <v>488156.0980462692</v>
       </c>
       <c r="P6" t="n">
-        <v>487843.4567173483</v>
+        <v>488156.0980462693</v>
       </c>
     </row>
   </sheetData>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973566</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973566</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973566</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51.32408273547412</v>
+        <v>377.9418368861298</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.7439527351647</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282312</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>270.4601319683923</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>18.63468138062404</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>107.7439527351648</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>12.64782234206243</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>161.3963097220421</v>
+        <v>73.27023244588258</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.7439527351648</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>40.58734229568833</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.210640988183304e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28289,7 +28289,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>9.615064300305676e-12</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-1.733724275254644e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28523,7 +28523,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-2.700062395888381e-12</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31609,7 +31609,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233475</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862125</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565744</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071789</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565744</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558004</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558004</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558004</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558009</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558009</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558009</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558009</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558004</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558009</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558009</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013292</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.95065951213</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066347</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238456</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>257.95065951213</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060414</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.165419911356</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.165419911356</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.165419911356</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113564</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113564</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113564</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113564</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.165419911356</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113564</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113564</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
